--- a/src/models/baselines/SVM/results/synthetic/topology/tv2/metrics.xlsx
+++ b/src/models/baselines/SVM/results/synthetic/topology/tv2/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6207529843893481</v>
+        <v>0.8782904805632078</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4898989898989899</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4898989898989899</v>
+        <v>0.7373737373737375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6399602081420264</v>
+        <v>0.8961202938475665</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.7626262626262627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.7626262626262628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6510942760942761</v>
+        <v>0.9043082338536884</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5505050505050505</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5505050505050505</v>
+        <v>0.7373737373737375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7281527395163758</v>
+        <v>0.8948576675849402</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.7929292929292929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.7929292929292929</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6599326599326599</v>
+        <v>0.9193449647995102</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.7373737373737375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6115319865319865</v>
+        <v>0.8825374961738598</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7043541475359657</v>
+        <v>0.9002525252525254</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7626262626262627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.7626262626262628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6751989592898684</v>
+        <v>0.8994107744107743</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.494949494949495</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.494949494949495</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6689240893786348</v>
+        <v>0.9129170492806856</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5911769207223753</v>
+        <v>0.8959672482399755</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4757575757575758</v>
+        <v>0.7535353535353535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4757575757575758</v>
+        <v>0.7535353535353536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6551078971533517</v>
+        <v>0.8984006734006733</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0470658417643274</v>
+        <v>0.02390335265898836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0470658417643274</v>
+        <v>0.02390335265898834</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04188663252048233</v>
+        <v>0.01233095593097869</v>
       </c>
     </row>
   </sheetData>
